--- a/2. 연구사업(2023년)/4. 실험계획/20230917_sample_list(cation).xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/20230917_sample_list(cation).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\4. 실험계획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\2. 연구사업(2023년)\4. 실험계획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B790C-77C2-4B0E-A70A-BAE64A29E9AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$339</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1727,23 +1727,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1779,23 +1762,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1971,12 +1937,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V329" sqref="V329"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21246,7 +21215,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2. 연구사업(2023년)/4. 실험계획/20230917_sample_list(cation).xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/20230917_sample_list(cation).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\2. 연구사업(2023년)\4. 실험계획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\4. 실험계획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1944,8 +1944,8 @@
   <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9691,7 +9691,7 @@
         <v>404</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>458</v>
@@ -9750,7 +9750,7 @@
         <v>404</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>459</v>
@@ -9809,7 +9809,7 @@
         <v>404</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>458</v>
@@ -9868,7 +9868,7 @@
         <v>404</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>459</v>
@@ -10163,7 +10163,7 @@
         <v>404</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>458</v>
@@ -10222,7 +10222,7 @@
         <v>404</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>459</v>
@@ -10281,7 +10281,7 @@
         <v>404</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>458</v>
@@ -10340,7 +10340,7 @@
         <v>404</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>459</v>
